--- a/biology/Biochimie/Aspalathine/Aspalathine.xlsx
+++ b/biology/Biochimie/Aspalathine/Aspalathine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'aspalathine est la principale chalcone de la feuille du rooibos (Aspalathus linearis)[2], plus précisément c’est un C-hétéroside flavonoïque, constitué de deux parties :
+L'aspalathine est la principale chalcone de la feuille du rooibos (Aspalathus linearis), plus précisément c’est un C-hétéroside flavonoïque, constitué de deux parties :
 une partie osidique : le glucose ;
 une partie aglycone (ou génine) : une dihydrochalcone.
 L'aglycone est lié à la partie flavonoique par un atome de carbone au lien d'un atome d'oxygène (O-hétéroside).
-Cette flavonoïde est présente en plus forte quantité dans le rooibos vert (non fermenté) et est connue pour ses vertus antioxydantes[3].
-L'aspalathine, qui est similaire en structure à la nothofagine, est oxydée lors de la fermentation du rooibos en dihydroiso-orientine[3].
+Cette flavonoïde est présente en plus forte quantité dans le rooibos vert (non fermenté) et est connue pour ses vertus antioxydantes.
+L'aspalathine, qui est similaire en structure à la nothofagine, est oxydée lors de la fermentation du rooibos en dihydroiso-orientine.
 Nom scientifique : 2',3,4,4',6'-pentahydroxy-3-C-β-D-glucopyranosyldihydrochalcone
 </t>
         </is>
